--- a/coordinates_sample/105河东郡/105河东郡.xlsx
+++ b/coordinates_sample/105河东郡/105河东郡.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brantiusxiong/GitHub/后汉书-郡国志/coordinates_sample/105河东郡/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2BF8946-C039-AA4E-B12D-6DF4E8DDDF44}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19D1F1DE-1BDF-214B-9804-494009034193}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="480" windowWidth="25600" windowHeight="14600" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14580" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="105(CHGIS)" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="64">
   <si>
     <t>county_han</t>
   </si>
@@ -219,6 +219,13 @@
   </si>
   <si>
     <t>CHGIS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>骐侯国</t>
+    <rPh sb="0" eb="2">
+      <t>hou'guo</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -589,18 +596,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1024" width="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -629,7 +636,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -658,7 +665,7 @@
         <v>95291</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -687,7 +694,7 @@
         <v>95280</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
@@ -716,7 +723,7 @@
         <v>95478</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
@@ -745,7 +752,7 @@
         <v>95482</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>21</v>
       </c>
@@ -774,7 +781,7 @@
         <v>95285</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>22</v>
       </c>
@@ -803,7 +810,7 @@
         <v>95247</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>25</v>
       </c>
@@ -832,7 +839,7 @@
         <v>95470</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>26</v>
       </c>
@@ -861,7 +868,7 @@
         <v>95248</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>27</v>
       </c>
@@ -890,7 +897,7 @@
         <v>95724</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>28</v>
       </c>
@@ -919,7 +926,7 @@
         <v>95716</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>29</v>
       </c>
@@ -948,7 +955,7 @@
         <v>95427</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>30</v>
       </c>
@@ -977,7 +984,7 @@
         <v>95255</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>31</v>
       </c>
@@ -1006,7 +1013,7 @@
         <v>95230</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>33</v>
       </c>
@@ -1035,7 +1042,7 @@
         <v>95241</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>34</v>
       </c>
@@ -1064,7 +1071,7 @@
         <v>95415</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>37</v>
       </c>
@@ -1093,7 +1100,7 @@
         <v>95443</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>39</v>
       </c>
@@ -1122,7 +1129,7 @@
         <v>95217</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>43</v>
       </c>
@@ -1151,11 +1158,6 @@
         <v>95401</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="21" spans="1:9" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="22" spans="1:9" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="23" spans="1:9" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="24" spans="1:9" ht="13" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1407,7 +1409,7 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1941,9 +1943,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A24" s="1" t="s">
-        <v>48</v>
+    <row r="24" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+      <c r="A24" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>48</v>
